--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail15 Features.xlsx
@@ -5971,7 +5971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5982,29 +5982,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6025,115 +6023,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6150,72 +6138,66 @@
         <v>1.849754371658429e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1387592865259045</v>
+        <v>6.207643443098312e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.475165513671736</v>
+        <v>1.40769191297691e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.207643443098312e-07</v>
+        <v>0.04874424418115754</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.40769191297691e-06</v>
+        <v>0.08068551048543678</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.04874424418115754</v>
+        <v>0.008878002787045586</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.08068551048543678</v>
+        <v>1.661850027871975</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.008878002787045586</v>
+        <v>1.522997743277632</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.583294744889745</v>
+        <v>3.843373801099964</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.522997743277632</v>
+        <v>1.977217700347573e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.843373801099964</v>
+        <v>62188655.17129486</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.977217700347573e-15</v>
+        <v>1.770497697887504e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>62188655.17129486</v>
+        <v>7.646748741493055</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.770497697887504e-06</v>
+        <v>0.000139272222569344</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>7.646748741493055</v>
+        <v>10.0555453233677</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000139272222569344</v>
+        <v>1.147772509700689</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.0555453233677</v>
+        <v>0.01408237036392288</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.147772509700689</v>
+        <v>2.798957587500688</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01408237036392288</v>
+        <v>0.9469033672079566</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.798957587500688</v>
+        <v>1.805407252636355</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9469033672079566</v>
+        <v>11</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.805407252636355</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1914175808920536</v>
       </c>
     </row>
@@ -6230,72 +6212,66 @@
         <v>1.89940947408572e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1388177989500369</v>
+        <v>6.541339815597572e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.385662541244</v>
+        <v>1.417412462897188e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.541339815597572e-07</v>
+        <v>0.05458932680910845</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.417412462897188e-06</v>
+        <v>0.06991211053293474</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05458932680910845</v>
+        <v>0.007863473870543604</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.06991211053293474</v>
+        <v>1.657472995454618</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.007863473870543604</v>
+        <v>1.617645700011964</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.586392713759422</v>
+        <v>4.043890374523362</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.617645700011964</v>
+        <v>1.785998101052249e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.043890374523362</v>
+        <v>71125532.12968183</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.785998101052249e-15</v>
+        <v>1.533306076875443e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>71125532.12968183</v>
+        <v>9.035080992349148</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.533306076875443e-06</v>
+        <v>0.000131608757606357</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>9.035080992349148</v>
+        <v>8.754138965586879</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000131608757606357</v>
+        <v>1.213707148985812</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.754138965586879</v>
+        <v>0.01008583043090771</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.213707148985812</v>
+        <v>2.879448248972112</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01008583043090771</v>
+        <v>0.9479823244125577</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.879448248972112</v>
+        <v>1.780430481827711</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9479823244125577</v>
+        <v>11</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.780430481827711</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1950308064687725</v>
       </c>
     </row>
@@ -6310,72 +6286,66 @@
         <v>1.947431892796377e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1548838267523915</v>
+        <v>6.879924171809766e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.27708761578404</v>
+        <v>1.42831143772413e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.879924171809766e-07</v>
+        <v>0.058300790997303</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.42831143772413e-06</v>
+        <v>0.06552424576738515</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.058300790997303</v>
+        <v>0.007690877010854856</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.06552424576738515</v>
+        <v>1.605234833341569</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.007690877010854856</v>
+        <v>1.649188542020404</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.531379589751755</v>
+        <v>3.880889362660915</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.649188542020404</v>
+        <v>2.071161030258363e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.880889362660915</v>
+        <v>66201395.77533572</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.071161030258363e-15</v>
+        <v>1.616064797536701e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>66201395.77533572</v>
+        <v>9.077121701394335</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.616064797536701e-06</v>
+        <v>0.0001318450132082296</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9.077121701394335</v>
+        <v>7.87500189055286</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001318450132082296</v>
+        <v>1.344761663770949</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.87500189055286</v>
+        <v>0.008176454823086562</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.344761663770949</v>
+        <v>2.940909035915956</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008176454823086562</v>
+        <v>0.9441503551573268</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.940909035915956</v>
+        <v>1.831480307830523</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9441503551573268</v>
+        <v>12</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.831480307830523</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1996221330595862</v>
       </c>
     </row>
@@ -6390,72 +6360,66 @@
         <v>1.9952971881166e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1816210325492324</v>
+        <v>7.152188140110176e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.166926352442898</v>
+        <v>1.439977229802293e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.152188140110176e-07</v>
+        <v>0.05974296498193313</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.439977229802293e-06</v>
+        <v>0.0635746527236109</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05974296498193313</v>
+        <v>0.007610348855891499</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.0635746527236109</v>
+        <v>1.568640137389074</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.007610348855891499</v>
+        <v>1.721261579080096</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.490076715465224</v>
+        <v>3.711050817613273</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.721261579080096</v>
+        <v>2.340514151945724e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.711050817613273</v>
+        <v>59788948.63913246</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.340514151945724e-15</v>
+        <v>1.7641008872178e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>59788948.63913246</v>
+        <v>8.366678956142566</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.7641008872178e-06</v>
+        <v>0.0001365326997921422</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8.366678956142566</v>
+        <v>7.749379885594633</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001365326997921422</v>
+        <v>1.636773818854733</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.749379885594633</v>
+        <v>0.008199183012411935</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.636773818854733</v>
+        <v>3.002718410410073</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008199183012411935</v>
+        <v>0.9430777166983758</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.002718410410073</v>
+        <v>1.82226154842872</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9430777166983758</v>
+        <v>12</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.82226154842872</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2009997456231436</v>
       </c>
     </row>
@@ -6470,72 +6434,66 @@
         <v>2.044228533599965e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2098751682006839</v>
+        <v>7.304171374164423e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.068496568593442</v>
+        <v>1.452051210301991e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.304171374164423e-07</v>
+        <v>0.0595526877888141</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.452051210301991e-06</v>
+        <v>0.06229911664309607</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0595526877888141</v>
+        <v>0.00742747854298367</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.06229911664309607</v>
+        <v>1.527424826676183</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.00742747854298367</v>
+        <v>1.574351499801159</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.446324574093878</v>
+        <v>3.722205616624709</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.574351499801159</v>
+        <v>3.056794666936236e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.722205616624709</v>
+        <v>46867102.14716953</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.056794666936236e-15</v>
+        <v>2.22919126036186e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>46867102.14716953</v>
+        <v>6.714326711787016</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.22919126036186e-06</v>
+        <v>0.0001375609567347213</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6.714326711787016</v>
+        <v>8.339755390332909</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001375609567347213</v>
+        <v>1.46370476954808</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.339755390332909</v>
+        <v>0.009567573629507997</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.46370476954808</v>
+        <v>2.944359908781085</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009567573629507997</v>
+        <v>0.9415151330498248</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.944359908781085</v>
+        <v>1.844498324511203</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9415151330498248</v>
+        <v>3</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.844498324511203</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2021564874638574</v>
       </c>
     </row>
@@ -6550,72 +6508,66 @@
         <v>2.093580618880442e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2301824523908806</v>
+        <v>7.29085756251674e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9950265718597793</v>
+        <v>1.464230599369405e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.29085756251674e-07</v>
+        <v>0.05804076274688385</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.464230599369405e-06</v>
+        <v>0.0608463205811601</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.05804076274688385</v>
+        <v>0.007071042439594064</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.0608463205811601</v>
+        <v>1.525504269449819</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.007071042439594064</v>
+        <v>1.557455937547125</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.442670252620049</v>
+        <v>3.343412784248908</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.557455937547125</v>
+        <v>3.78867183756876e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.343412784248908</v>
+        <v>39756280.23171794</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.78867183756876e-15</v>
+        <v>2.648198091106078e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>39756280.23171794</v>
+        <v>5.988230046873601</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.648198091106078e-06</v>
+        <v>0.0001314639593330854</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5.988230046873601</v>
+        <v>8.66560356625272</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001314639593330854</v>
+        <v>1.307961234335431</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.66560356625272</v>
+        <v>0.009871981709066077</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.307961234335431</v>
+        <v>2.97030593064107</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009871981709066077</v>
+        <v>0.9398805487900332</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.97030593064107</v>
+        <v>1.853594452087459</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9398805487900332</v>
+        <v>3</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.853594452087459</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.198057614004831</v>
       </c>
     </row>
@@ -6630,72 +6582,66 @@
         <v>2.140912476767772e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2370403939921969</v>
+        <v>7.21680263881383e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.953613815497897</v>
+        <v>1.476319764748531e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.21680263881383e-07</v>
+        <v>0.05617943101479028</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.476319764748531e-06</v>
+        <v>0.0596088521764596</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.05617943101479028</v>
+        <v>0.006709530585797156</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.0596088521764596</v>
+        <v>1.501563786989316</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.006709530585797156</v>
+        <v>1.544250408671412</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.417809111012076</v>
+        <v>3.327606254299131</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.544250408671412</v>
+        <v>3.82475061766011e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.327606254299131</v>
+        <v>39970502.36900055</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.82475061766011e-15</v>
+        <v>2.613001552480849e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>39970502.36900055</v>
+        <v>6.110578629620059</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.613001552480849e-06</v>
+        <v>0.0001224258114053363</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>6.110578629620059</v>
+        <v>8.80087533685605</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001224258114053363</v>
+        <v>1.29005206861889</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.80087533685605</v>
+        <v>0.009482541012351135</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.29005206861889</v>
+        <v>3.075548813008693</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009482541012351135</v>
+        <v>0.9365835767683491</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.075548813008693</v>
+        <v>1.860580055508711</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9365835767683491</v>
+        <v>6</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.860580055508711</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.201964174394286</v>
       </c>
     </row>
@@ -6710,72 +6656,66 @@
         <v>2.184919515092964e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2323220580199026</v>
+        <v>7.194961759412968e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.9366791572065032</v>
+        <v>1.48831808985737e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.194961759412968e-07</v>
+        <v>0.05488056111058159</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.48831808985737e-06</v>
+        <v>0.05846227322360496</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.05488056111058159</v>
+        <v>0.00642996687295876</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.05846227322360496</v>
+        <v>1.493180966556942</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.00642996687295876</v>
+        <v>1.526891915124116</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.405823784627089</v>
+        <v>3.34202272321606</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.526891915124116</v>
+        <v>3.791824168225452e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.34202272321606</v>
+        <v>39889731.68509975</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.791824168225452e-15</v>
+        <v>2.598725746899262e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>39889731.68509975</v>
+        <v>6.033515329420524</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.598725746899262e-06</v>
+        <v>0.000113835540091975</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>6.033515329420524</v>
+        <v>8.748124574254037</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000113835540091975</v>
+        <v>1.344934564467302</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.748124574254037</v>
+        <v>0.00871179786187953</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.344934564467302</v>
+        <v>3.15141796251498</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00871179786187953</v>
+        <v>0.935426588663105</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.15141796251498</v>
+        <v>1.863609714051333</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.935426588663105</v>
+        <v>6</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.863609714051333</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2168852057358495</v>
       </c>
     </row>
@@ -6790,72 +6730,66 @@
         <v>2.225612910618938e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2209886151629692</v>
+        <v>7.295702533379038e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.9324423310614964</v>
+        <v>1.500349583367626e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.295702533379038e-07</v>
+        <v>0.05433091105393822</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.500349583367626e-06</v>
+        <v>0.05722806925511357</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.05433091105393822</v>
+        <v>0.00622708096691705</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.05722806925511357</v>
+        <v>1.485778364426282</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.00622708096691705</v>
+        <v>1.492342612470596</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.399693774258138</v>
+        <v>3.374132558071153</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.492342612470596</v>
+        <v>3.719997998083906e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.374132558071153</v>
+        <v>40683579.89720412</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.719997998083906e-15</v>
+        <v>2.536901452991988e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>40683579.89720412</v>
+        <v>6.157168351019375</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.536901452991988e-06</v>
+        <v>0.0001109254304676651</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>6.157168351019375</v>
+        <v>7.396896333598931</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001109254304676651</v>
+        <v>1.435589709323228</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.396896333598931</v>
+        <v>0.006069182363058554</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.435589709323228</v>
+        <v>3.342550123733822</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006069182363058554</v>
+        <v>0.9330731914660618</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.342550123733822</v>
+        <v>1.865161714263137</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9330731914660618</v>
+        <v>6</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.865161714263137</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2112138129306496</v>
       </c>
     </row>
@@ -6870,72 +6804,66 @@
         <v>2.263298618989138e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2066831188586352</v>
+        <v>7.401253683447507e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.9334387067656849</v>
+        <v>1.512522241519196e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.401253683447507e-07</v>
+        <v>0.05409941740333758</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.512522241519196e-06</v>
+        <v>0.05595137951824652</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.05409941740333758</v>
+        <v>0.006057610137471192</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.05595137951824652</v>
+        <v>1.457104022876668</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.006057610137471192</v>
+        <v>1.49113274937259</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.370265821104567</v>
+        <v>3.470577381444782</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.49113274937259</v>
+        <v>3.516118661028021e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.470577381444782</v>
+        <v>43675382.16893254</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.516118661028021e-15</v>
+        <v>2.320570166418088e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>43675382.16893254</v>
+        <v>6.707133501269356</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.320570166418088e-06</v>
+        <v>0.0001195192235951291</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>6.707133501269356</v>
+        <v>7.607110333967999</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001195192235951291</v>
+        <v>1.44575071431123</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.607110333967999</v>
+        <v>0.006916353685619445</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.44575071431123</v>
+        <v>3.230061369774607</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006916353685619445</v>
+        <v>0.9282875834901588</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.230061369774607</v>
+        <v>1.856195401296105</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9282875834901588</v>
+        <v>7</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.856195401296105</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2092002708799267</v>
       </c>
     </row>
@@ -6950,72 +6878,66 @@
         <v>2.296366571725704e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1891736857465068</v>
+        <v>7.453198602624728e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.9397866566002797</v>
+        <v>1.524819332566675e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.453198602624728e-07</v>
+        <v>0.05373969949387173</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.524819332566675e-06</v>
+        <v>0.05481676968859635</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.05373969949387173</v>
+        <v>0.005893192094442009</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.05481676968859635</v>
+        <v>1.448502887507398</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.005893192094442009</v>
+        <v>1.475141149049938</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.360256637992249</v>
+        <v>3.672461648296914</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.475141149049938</v>
+        <v>3.140164857444602e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.672461648296914</v>
+        <v>49040346.7732285</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.140164857444602e-15</v>
+        <v>2.056159521656581e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>49040346.7732285</v>
+        <v>7.551957095381417</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.056159521656581e-06</v>
+        <v>0.0001330599011605494</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7.551957095381417</v>
+        <v>8.701033172303035</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001330599011605494</v>
+        <v>1.32917424884874</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.701033172303035</v>
+        <v>0.01007369610507483</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.32917424884874</v>
+        <v>2.988637064706827</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01007369610507483</v>
+        <v>0.928022778061665</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.988637064706827</v>
+        <v>1.843014476416078</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.928022778061665</v>
+        <v>7</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.843014476416078</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2017491925192097</v>
       </c>
     </row>
@@ -7030,72 +6952,66 @@
         <v>2.32320779276164e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.168203848919894</v>
+        <v>7.472313105799244e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9513121080178899</v>
+        <v>1.537196462977037e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.472313105799244e-07</v>
+        <v>0.05338146729304181</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.537196462977037e-06</v>
+        <v>0.05392929369404532</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.05338146729304181</v>
+        <v>0.005758315754029788</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.05392929369404532</v>
+        <v>1.463866893452193</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.005758315754029788</v>
+        <v>1.561852556984625</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.376003293404653</v>
+        <v>3.671047159293348</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.561852556984625</v>
+        <v>2.640104119920018e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.671047159293348</v>
+        <v>59202307.74241303</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.640104119920018e-15</v>
+        <v>1.712083699069019e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>59202307.74241303</v>
+        <v>9.253335890238709</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.712083699069019e-06</v>
+        <v>0.0001292547033436443</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>9.253335890238709</v>
+        <v>9.064654970735351</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001292547033436443</v>
+        <v>1.271786749634367</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.064654970735351</v>
+        <v>0.0106205965528964</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.271786749634367</v>
+        <v>3.035627540876535</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0106205965528964</v>
+        <v>0.9289940298200101</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.035627540876535</v>
+        <v>1.872770984497706</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9289940298200101</v>
+        <v>7</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.872770984497706</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2002514011429708</v>
       </c>
     </row>
@@ -7110,72 +7026,66 @@
         <v>2.342632894854546e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1439431047603159</v>
+        <v>7.472313105799244e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.9669565648788492</v>
+        <v>1.549599645631731e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.472313105799244e-07</v>
+        <v>0.05288233342662881</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.549599645631731e-06</v>
+        <v>0.05355252670605384</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.05288233342662881</v>
+        <v>0.005664752990367171</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.05355252670605384</v>
+        <v>1.491959589041202</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005664752990367171</v>
+        <v>1.573699618443104</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.402418340631432</v>
+        <v>3.703736445149216</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.573699618443104</v>
+        <v>2.593706508956763e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.703736445149216</v>
+        <v>60365022.71241101</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.593706508956763e-15</v>
+        <v>1.707958395118345e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>60365022.71241101</v>
+        <v>9.451300436010847</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.707958395118345e-06</v>
+        <v>0.0001158172846869148</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>9.451300436010847</v>
+        <v>9.181966426900514</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001158172846869148</v>
+        <v>1.30118502425294</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.181966426900514</v>
+        <v>0.009764382410571305</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.30118502425294</v>
+        <v>3.218095399572529</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.009764382410571305</v>
+        <v>0.930473316262271</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.218095399572529</v>
+        <v>1.853099608118819</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.930473316262271</v>
+        <v>6</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.853099608118819</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2139085853977839</v>
       </c>
     </row>
@@ -7190,72 +7100,66 @@
         <v>2.353906510327057e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.116765531437192</v>
+        <v>7.472313105799244e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.9852148832095269</v>
+        <v>1.561963889149108e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.472313105799244e-07</v>
+        <v>0.05240070051293276</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.561963889149108e-06</v>
+        <v>0.05356904746406226</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.05240070051293276</v>
+        <v>0.005615818347193866</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.05356904746406226</v>
+        <v>1.500201634425623</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.005615818347193866</v>
+        <v>1.734523800989231</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.412035040165622</v>
+        <v>3.749431343486208</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.734523800989231</v>
+        <v>2.530871940813019e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.749431343486208</v>
+        <v>62142042.19280335</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.530871940813019e-15</v>
+        <v>1.665021062869258e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>62142042.19280335</v>
+        <v>9.773299637740402</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.665021062869258e-06</v>
+        <v>0.0001139693192177169</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>9.773299637740402</v>
+        <v>8.517886638976529</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001139693192177169</v>
+        <v>1.496930167920015</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.517886638976529</v>
+        <v>0.008268974753038845</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.496930167920015</v>
+        <v>3.411522890239922</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.008268974753038845</v>
+        <v>0.9321291316340017</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.411522890239922</v>
+        <v>1.844884099414343</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9321291316340017</v>
+        <v>9</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.844884099414343</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2127084942205349</v>
       </c>
     </row>
@@ -7270,72 +7174,66 @@
         <v>2.357698383865158e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.08809101767440819</v>
+        <v>7.465393135579425e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.00371492692091</v>
+        <v>1.574276400176151e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>7.465393135579425e-07</v>
+        <v>0.05212869466916283</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.574276400176151e-06</v>
+        <v>0.0536774426845703</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.05212869466916283</v>
+        <v>0.005599018522927742</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0536774426845703</v>
+        <v>1.526626091541971</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.005599018522927742</v>
+        <v>1.548714308174916</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.438643695314681</v>
+        <v>3.673625350060095</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.548714308174916</v>
+        <v>2.636399711924601e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.673625350060095</v>
+        <v>59772832.70201623</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.636399711924601e-15</v>
+        <v>1.750860129428073e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>59772832.70201623</v>
+        <v>9.419306558410751</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.750860129428073e-06</v>
+        <v>0.0001123087715553731</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>9.419306558410751</v>
+        <v>8.492614523356959</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001123087715553731</v>
+        <v>1.469022058547447</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.492614523356959</v>
+        <v>0.008100214156032218</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.469022058547447</v>
+        <v>3.390930536252071</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.008100214156032218</v>
+        <v>0.9367208772965693</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.390930536252071</v>
+        <v>1.832946992741561</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9367208772965693</v>
+        <v>8</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.832946992741561</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.219478116460436</v>
       </c>
     </row>
@@ -7350,72 +7248,66 @@
         <v>2.355426347684798e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.05921705360104461</v>
+        <v>7.432671829974585e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.020814433507861</v>
+        <v>1.586548505218615e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.432671829974585e-07</v>
+        <v>0.05198564417790872</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.586548505218615e-06</v>
+        <v>0.05388554165232063</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.05198564417790872</v>
+        <v>0.005606482181740339</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.05388554165232063</v>
+        <v>1.52976647057089</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.005606482181740339</v>
+        <v>1.51835113686434</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.439710828764599</v>
+        <v>3.911879886135175</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.51835113686434</v>
+        <v>2.325037486183638e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.911879886135175</v>
+        <v>69563969.586593</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.325037486183638e-15</v>
+        <v>1.518602445802693e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>69563969.586593</v>
+        <v>11.25119553640885</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.518602445802693e-06</v>
+        <v>0.0001248556827765167</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>11.25119553640885</v>
+        <v>9.074013025341447</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001248556827765167</v>
+        <v>1.332569503388908</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.074013025341447</v>
+        <v>0.01028033129796905</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.332569503388908</v>
+        <v>3.14339183823411</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01028033129796905</v>
+        <v>0.9356347184191192</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.14339183823411</v>
+        <v>1.816550491924044</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9356347184191192</v>
+        <v>9</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.816550491924044</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2130681509767823</v>
       </c>
     </row>
@@ -7792,7 +7684,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.471946724818005</v>
+        <v>1.46709016835831</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.177084615318291</v>
@@ -7881,7 +7773,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.493935965535456</v>
+        <v>1.485246050132108</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.131196632004058</v>
@@ -7970,7 +7862,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.530018746578247</v>
+        <v>1.519888951594537</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.220373648762138</v>
@@ -8059,7 +7951,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.532287959259825</v>
+        <v>1.522517524863674</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.279535323601106</v>
@@ -8148,7 +8040,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.54891043448556</v>
+        <v>1.535846965238029</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.169970353783207</v>
@@ -8237,7 +8129,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.543757728991094</v>
+        <v>1.529951680995586</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.209522763050647</v>
@@ -8326,7 +8218,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.593713718503162</v>
+        <v>1.577310074201684</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.016621690126193</v>
@@ -8415,7 +8307,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.625649564889464</v>
+        <v>1.605331563412479</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.11944472936481</v>
@@ -8504,7 +8396,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.585011298214324</v>
+        <v>1.567515024323583</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.220945606216063</v>
@@ -8593,7 +8485,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.589242260705604</v>
+        <v>1.572081236029575</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.067013658113858</v>
@@ -8682,7 +8574,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.578912926733111</v>
+        <v>1.566086848490496</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.111389850848251</v>
@@ -8771,7 +8663,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.578501602090316</v>
+        <v>1.568182895245103</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.09905291286134</v>
@@ -8860,7 +8752,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.544706714261251</v>
+        <v>1.538738439644161</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.036778996507739</v>
@@ -8949,7 +8841,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.502961380754136</v>
+        <v>1.499390964648267</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.9053985989322</v>
@@ -9038,7 +8930,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.507100915904694</v>
+        <v>1.504770761907934</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.057649471258829</v>
@@ -9127,7 +9019,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.486555124353134</v>
+        <v>1.483138177988088</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.055319021234914</v>
@@ -9216,7 +9108,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.473587981959901</v>
+        <v>1.469622617057825</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.110068702934343</v>
@@ -9305,7 +9197,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.447864361982284</v>
+        <v>1.441683618697531</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.127203842721799</v>
@@ -9394,7 +9286,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.433460978323751</v>
+        <v>1.438316135481824</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.14392096524313</v>
@@ -9483,7 +9375,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.406907814223303</v>
+        <v>1.411934399093709</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.173269342003325</v>
@@ -9572,7 +9464,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.410743137172465</v>
+        <v>1.415677242073655</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.156740998447717</v>
@@ -9661,7 +9553,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.413494009681455</v>
+        <v>1.418310303675965</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.176456483242872</v>
@@ -9750,7 +9642,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.416160761170523</v>
+        <v>1.421231256179952</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.19553212965432</v>
@@ -9839,7 +9731,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.431259304043826</v>
+        <v>1.436696319076407</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.179935439862777</v>
@@ -9928,7 +9820,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.428380872291027</v>
+        <v>1.432207007606235</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.206690807023222</v>
@@ -10017,7 +9909,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.397160496054126</v>
+        <v>1.396350678804869</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.979981702241957</v>
@@ -10106,7 +9998,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.355994299898616</v>
+        <v>1.354580536882183</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.017808822453434</v>
@@ -10195,7 +10087,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.366405646031455</v>
+        <v>1.361120479886752</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.031716790482322</v>
@@ -10284,7 +10176,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.362534554802169</v>
+        <v>1.35882599823501</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.987963256566923</v>
@@ -10373,7 +10265,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.355665949378877</v>
+        <v>1.350342626951218</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.976436155347918</v>
@@ -10462,7 +10354,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.365606135516076</v>
+        <v>1.361705319471791</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.917084109098131</v>
@@ -10551,7 +10443,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.38315054974332</v>
+        <v>1.382176962669024</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.904725291611691</v>
@@ -10640,7 +10532,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.399584830004932</v>
+        <v>1.393631189466925</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.957601002142685</v>
@@ -10729,7 +10621,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.381909776638246</v>
+        <v>1.372238388429595</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.945269435651816</v>
@@ -10818,7 +10710,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.392886140841494</v>
+        <v>1.385237187170019</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.997088912988326</v>
@@ -10907,7 +10799,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.388521126771357</v>
+        <v>1.381581664861439</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.950894670397637</v>
@@ -10996,7 +10888,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.395203547312289</v>
+        <v>1.389665392799941</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.951962453765588</v>
@@ -11085,7 +10977,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.383177803981714</v>
+        <v>1.376434464964823</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.973986459422482</v>
@@ -11174,7 +11066,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.377356699061062</v>
+        <v>1.372714587243669</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.976607062639386</v>
@@ -11263,7 +11155,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.384047597321069</v>
+        <v>1.378518572731602</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.014943065233423</v>
@@ -11352,7 +11244,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.388001836336231</v>
+        <v>1.392233955271227</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.173197871599914</v>
@@ -11441,7 +11333,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.403707368528166</v>
+        <v>1.408240860607532</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.219258656794707</v>
@@ -11530,7 +11422,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.415617151792134</v>
+        <v>1.419841812741161</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.210688749742244</v>
@@ -11619,7 +11511,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.427516567499631</v>
+        <v>1.434214881480792</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.272738862333484</v>
@@ -11708,7 +11600,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.452023644544479</v>
+        <v>1.461448693756532</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.285486698114462</v>
@@ -11797,7 +11689,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.4612484898745</v>
+        <v>1.472234860079993</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.255557416250912</v>
@@ -11886,7 +11778,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.466787561572742</v>
+        <v>1.479639977473359</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.2944135973654</v>
@@ -11975,7 +11867,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.492275449611387</v>
+        <v>1.506977268252029</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.262411504111907</v>
@@ -12064,7 +11956,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.527263213290874</v>
+        <v>1.545855793116366</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.267910622034247</v>
@@ -12153,7 +12045,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.56982500323404</v>
+        <v>1.58823496025453</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.32566091191142</v>
@@ -12242,7 +12134,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.575371058317236</v>
+        <v>1.594181885936603</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.252731385455524</v>
@@ -12331,7 +12223,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.546388789591882</v>
+        <v>1.566101016089724</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.252966411256407</v>
@@ -12420,7 +12312,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.571767750350217</v>
+        <v>1.593752860851025</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.265102075626333</v>
@@ -12509,7 +12401,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.583786326884528</v>
+        <v>1.608302418307162</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.284881101592261</v>
@@ -12598,7 +12490,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.594412454682707</v>
+        <v>1.614495748376279</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.317361255871432</v>
@@ -12687,7 +12579,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.675193912366282</v>
+        <v>1.684785144552006</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.21626338998022</v>
@@ -12776,7 +12668,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.703454106259307</v>
+        <v>1.707714726941479</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.180319997901762</v>
@@ -12865,7 +12757,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.706564364622508</v>
+        <v>1.710107943655323</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.255014237022829</v>
@@ -12954,7 +12846,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.757675179985719</v>
+        <v>1.758260877830931</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.550405391486348</v>
@@ -13043,7 +12935,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.755604409555704</v>
+        <v>1.75636268846643</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.648532713833359</v>
@@ -13132,7 +13024,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.731242220727501</v>
+        <v>1.733336443005434</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.595886807894809</v>
@@ -13418,7 +13310,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.428694792214548</v>
+        <v>1.453759607499599</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.532668529840024</v>
@@ -13507,7 +13399,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.421491891891979</v>
+        <v>1.446694492547204</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.448437720979562</v>
@@ -13596,7 +13488,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.438505393701899</v>
+        <v>1.46133234976913</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.485177900863157</v>
@@ -13685,7 +13577,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.422100581122693</v>
+        <v>1.440640472084386</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.608536404757103</v>
@@ -13774,7 +13666,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.438837574536119</v>
+        <v>1.459393771097813</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.454886471942341</v>
@@ -13863,7 +13755,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.444499359678466</v>
+        <v>1.461542492534542</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.465033454546046</v>
@@ -13952,7 +13844,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.482316876430773</v>
+        <v>1.497526761995436</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.192604562598201</v>
@@ -14041,7 +13933,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.493712270975453</v>
+        <v>1.510070714178862</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.167270969264871</v>
@@ -14130,7 +14022,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.485142300408377</v>
+        <v>1.496315812960331</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.414400378076806</v>
@@ -14219,7 +14111,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.488850846934134</v>
+        <v>1.502726080538098</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.19381965899113</v>
@@ -14308,7 +14200,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.468630603962268</v>
+        <v>1.485128199125494</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.342166404989281</v>
@@ -14397,7 +14289,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.463270211312792</v>
+        <v>1.480263463100401</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.338487279517244</v>
@@ -14486,7 +14378,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.433595136140924</v>
+        <v>1.448303067158067</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.111360934823783</v>
@@ -14575,7 +14467,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.409232570617558</v>
+        <v>1.429536690244143</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.03163139779322</v>
@@ -14664,7 +14556,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.40342990956075</v>
+        <v>1.415435765455077</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.147120763170206</v>
@@ -14753,7 +14645,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.367546733813574</v>
+        <v>1.377015288141819</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.064249331198364</v>
@@ -14842,7 +14734,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.367538636388402</v>
+        <v>1.374620774214306</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.078163682855255</v>
@@ -14931,7 +14823,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.357174557053427</v>
+        <v>1.364897812047771</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.063961561990429</v>
@@ -15020,7 +14912,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.355360278957704</v>
+        <v>1.371448117010192</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.146181472730452</v>
@@ -15109,7 +15001,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.333447855816225</v>
+        <v>1.348744590626532</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.136247316736003</v>
@@ -15198,7 +15090,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.333687806812451</v>
+        <v>1.349828574645366</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.131931926244533</v>
@@ -15287,7 +15179,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.334110369850009</v>
+        <v>1.352064645566593</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.082677564086296</v>
@@ -15376,7 +15268,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.331190280459362</v>
+        <v>1.346786655551849</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.148052822004822</v>
@@ -15465,7 +15357,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.339650607602207</v>
+        <v>1.356319145408734</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.127053794817513</v>
@@ -15554,7 +15446,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.328320138307102</v>
+        <v>1.342922907692137</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.128057591020942</v>
@@ -15643,7 +15535,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.312244501853711</v>
+        <v>1.320445521545295</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.178448960809478</v>
@@ -15732,7 +15624,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.287211688914306</v>
+        <v>1.293176308466737</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.129036028074411</v>
@@ -15821,7 +15713,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.3131821051913</v>
+        <v>1.31751588648522</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.988236648955653</v>
@@ -15910,7 +15802,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.315552828678797</v>
+        <v>1.310507761269634</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.171059424789172</v>
@@ -15999,7 +15891,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.298647650189223</v>
+        <v>1.303904837228057</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.076129083997858</v>
@@ -16088,7 +15980,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.318854447231954</v>
+        <v>1.331361874595084</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.191960178478351</v>
@@ -16177,7 +16069,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.326516380277817</v>
+        <v>1.341724159185929</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.074043927626638</v>
@@ -16266,7 +16158,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.32458340441777</v>
+        <v>1.33367839274172</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.964330903632796</v>
@@ -16355,7 +16247,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.319520062172219</v>
+        <v>1.317749234367984</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.076357619628946</v>
@@ -16444,7 +16336,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.318005345753194</v>
+        <v>1.317412554689826</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.081195749603145</v>
@@ -16533,7 +16425,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.312687396765815</v>
+        <v>1.308528743665431</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.128611565183968</v>
@@ -16622,7 +16514,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.314329268648983</v>
+        <v>1.308022535318861</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.092776256679754</v>
@@ -16711,7 +16603,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.309473977668931</v>
+        <v>1.293187985739639</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.085089395437369</v>
@@ -16800,7 +16692,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.293837545251133</v>
+        <v>1.278479605796049</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.212976405257636</v>
@@ -16889,7 +16781,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.322726214418992</v>
+        <v>1.307055134694771</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.18759741004096</v>
@@ -16978,7 +16870,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.335445725367571</v>
+        <v>1.324660492761395</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.083671325588669</v>
@@ -17067,7 +16959,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.365177478370548</v>
+        <v>1.357208893896934</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.126486698123417</v>
@@ -17156,7 +17048,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.366842928542201</v>
+        <v>1.359905227887793</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.160040363997932</v>
@@ -17245,7 +17137,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.391151427633334</v>
+        <v>1.386445912207457</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.960295048816405</v>
@@ -17334,7 +17226,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.41753748540013</v>
+        <v>1.414954805472327</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.1130144097156</v>
@@ -17423,7 +17315,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.427144794156649</v>
+        <v>1.426053697571851</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.105537291015056</v>
@@ -17512,7 +17404,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.437146107064316</v>
+        <v>1.437803363319752</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.133020936814815</v>
@@ -17601,7 +17493,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.462368216700869</v>
+        <v>1.467302452282703</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.124036682841409</v>
@@ -17690,7 +17582,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.486974978347152</v>
+        <v>1.501217670755044</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.164511594664239</v>
@@ -17779,7 +17671,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.53660546466644</v>
+        <v>1.5499812040287</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.043344054574548</v>
@@ -17868,7 +17760,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.555505933844479</v>
+        <v>1.573684239996134</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.135891631581373</v>
@@ -17957,7 +17849,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.56081559649491</v>
+        <v>1.581551597060082</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.166706555718206</v>
@@ -18046,7 +17938,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.640036855255969</v>
+        <v>1.676223158058663</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.36556176205885</v>
@@ -18135,7 +18027,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.696585513702519</v>
+        <v>1.732124279027882</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.956976822524203</v>
@@ -18224,7 +18116,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.697298357856208</v>
+        <v>1.729538609833486</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.963439070562279</v>
@@ -18313,7 +18205,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.73274932841908</v>
+        <v>1.766322896062021</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.79864431657692</v>
@@ -18402,7 +18294,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.752214724398538</v>
+        <v>1.779724472675951</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.802509535262347</v>
@@ -18491,7 +18383,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.732010313943963</v>
+        <v>1.762115418143728</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.788259014707586</v>
@@ -18580,7 +18472,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.749347930550372</v>
+        <v>1.779116106981041</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.395681219826612</v>
@@ -18669,7 +18561,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.750599352000427</v>
+        <v>1.780861124941334</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.229127276082521</v>
@@ -18758,7 +18650,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.744254416075018</v>
+        <v>1.770155836104331</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.189652435462347</v>
@@ -19044,7 +18936,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.589040765873459</v>
+        <v>1.575549750024102</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.846606864313236</v>
@@ -19133,7 +19025,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.597952060712667</v>
+        <v>1.576556022419973</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.645811803596895</v>
@@ -19222,7 +19114,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.620711728590408</v>
+        <v>1.589267927083496</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.596180229881101</v>
@@ -19311,7 +19203,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.624875910932597</v>
+        <v>1.591078982010642</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.183000993028829</v>
@@ -19400,7 +19292,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.63596422500672</v>
+        <v>1.593786328793005</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.2181689516119</v>
@@ -19489,7 +19381,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.63573144563183</v>
+        <v>1.591574255886457</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.931368045044192</v>
@@ -19578,7 +19470,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.633366526660017</v>
+        <v>1.588971012674902</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.740309264124548</v>
@@ -19667,7 +19559,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.636300739928714</v>
+        <v>1.591561723300645</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.16979246255319</v>
@@ -19756,7 +19648,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.625797784444162</v>
+        <v>1.580849924738776</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.697519013123148</v>
@@ -19845,7 +19737,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.61853425955318</v>
+        <v>1.572172119359066</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.676381285891279</v>
@@ -19934,7 +19826,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.625568882789707</v>
+        <v>1.582688780304961</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.951865388839413</v>
@@ -20023,7 +19915,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.627101635641216</v>
+        <v>1.591064878379485</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.767632324602803</v>
@@ -20112,7 +20004,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.61556710409238</v>
+        <v>1.582178495010874</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.475338280518856</v>
@@ -20201,7 +20093,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.612502317566984</v>
+        <v>1.577481183416311</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.826767163067456</v>
@@ -20290,7 +20182,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.613301723776996</v>
+        <v>1.577560582899149</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.55636065054137</v>
@@ -20379,7 +20271,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.5897417087107</v>
+        <v>1.555295483224983</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.451836715006137</v>
@@ -20468,7 +20360,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.593392156807855</v>
+        <v>1.564174519657384</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.552037641626274</v>
@@ -20557,7 +20449,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.57966013068161</v>
+        <v>1.553054091266348</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.57043214526049</v>
@@ -20646,7 +20538,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.57656081787277</v>
+        <v>1.551713959642428</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.743592081256008</v>
@@ -20735,7 +20627,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.573338307356962</v>
+        <v>1.55378259781118</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.794527439310547</v>
@@ -20824,7 +20716,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.56265691077271</v>
+        <v>1.544306011537943</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.581566738718933</v>
@@ -20913,7 +20805,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.567169028817046</v>
+        <v>1.545437864457409</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.645672244797991</v>
@@ -21002,7 +20894,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.570820083584309</v>
+        <v>1.549895257396736</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.714265948406217</v>
@@ -21091,7 +20983,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.585320130111503</v>
+        <v>1.553590399820633</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.65316958269647</v>
@@ -21180,7 +21072,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.567137238581797</v>
+        <v>1.545968083583211</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.862605721940114</v>
@@ -21269,7 +21161,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.55691159074947</v>
+        <v>1.532190951132278</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.62953296462021</v>
@@ -21358,7 +21250,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.485866704374332</v>
+        <v>1.464085523354262</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.9071588986079</v>
@@ -21447,7 +21339,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.49009903462062</v>
+        <v>1.464859838453904</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.946625940448811</v>
@@ -21536,7 +21428,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.476689211671315</v>
+        <v>1.454937269656951</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.880680861008641</v>
@@ -21625,7 +21517,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.476088062751417</v>
+        <v>1.449557411908556</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.909261130217575</v>
@@ -21714,7 +21606,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.480355558080107</v>
+        <v>1.460353152045861</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.886650163902022</v>
@@ -21803,7 +21695,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.480823185188878</v>
+        <v>1.458993909963024</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.875307359844053</v>
@@ -21892,7 +21784,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.481895663068451</v>
+        <v>1.458640497278667</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.890303179298612</v>
@@ -21981,7 +21873,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.471404739504769</v>
+        <v>1.451149262668196</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.865942246176593</v>
@@ -22070,7 +21962,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.482461941345369</v>
+        <v>1.460438433227115</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.899620073530238</v>
@@ -22159,7 +22051,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.498601214745096</v>
+        <v>1.47536737736397</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.89402333170564</v>
@@ -22248,7 +22140,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.500054357967278</v>
+        <v>1.478257172560501</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.876046203513296</v>
@@ -22337,7 +22229,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.480908401444876</v>
+        <v>1.459611186276517</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.900630271267554</v>
@@ -22426,7 +22318,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.478525417848682</v>
+        <v>1.461514267820503</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.934063986355081</v>
@@ -22515,7 +22407,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.490873784996081</v>
+        <v>1.46984848062682</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.911981699189738</v>
@@ -22604,7 +22496,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.498870104762446</v>
+        <v>1.480232619600009</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.877405740682354</v>
@@ -22693,7 +22585,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.570869185690606</v>
+        <v>1.551080611024277</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.866053903122557</v>
@@ -22782,7 +22674,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.570177644158332</v>
+        <v>1.558379984995717</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.672397821971381</v>
@@ -22871,7 +22763,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.585674898222352</v>
+        <v>1.572814753911778</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.887226101499828</v>
@@ -22960,7 +22852,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.601760843033779</v>
+        <v>1.597435347958664</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.97847294969294</v>
@@ -23049,7 +22941,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.613018487004449</v>
+        <v>1.610433096414237</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.756803330398566</v>
@@ -23138,7 +23030,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.617725550621146</v>
+        <v>1.615483625016018</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.02800219137287</v>
@@ -23227,7 +23119,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.636915425939768</v>
+        <v>1.634173602506489</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.006400734985742</v>
@@ -23316,7 +23208,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.650854131308138</v>
+        <v>1.649377298364874</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.884626352486652</v>
@@ -23405,7 +23297,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.649046216933919</v>
+        <v>1.652792243508684</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.641689665492497</v>
@@ -23494,7 +23386,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.653365514913657</v>
+        <v>1.658103564429015</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.953432533204371</v>
@@ -23583,7 +23475,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.656528798816371</v>
+        <v>1.661310955207564</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.951930401259979</v>
@@ -23672,7 +23564,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.697484122656375</v>
+        <v>1.700275644913624</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.212453098147652</v>
@@ -23761,7 +23653,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.698068536055635</v>
+        <v>1.702287136419939</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.324318212104417</v>
@@ -23850,7 +23742,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.702111844238483</v>
+        <v>1.707511917674649</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.652402137500745</v>
@@ -23939,7 +23831,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.715292304157783</v>
+        <v>1.715860920567932</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.079124675846531</v>
@@ -24028,7 +23920,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.715764349910256</v>
+        <v>1.714856789695985</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.225732595908913</v>
@@ -24117,7 +24009,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.721214653662703</v>
+        <v>1.715074449900697</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.966617768266342</v>
@@ -24206,7 +24098,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.735056844486149</v>
+        <v>1.732438014781368</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.456400385090062</v>
@@ -24295,7 +24187,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.726622393657378</v>
+        <v>1.726255303765301</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.541325503387337</v>
@@ -24384,7 +24276,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.72707582473483</v>
+        <v>1.722662521832366</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.001030822394355</v>
@@ -24670,7 +24562,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.728140351257035</v>
+        <v>1.695085126106158</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.270271251515444</v>
@@ -24759,7 +24651,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.724543008469118</v>
+        <v>1.692108231892781</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.248138843070854</v>
@@ -24848,7 +24740,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.727848479479641</v>
+        <v>1.692430464720992</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.974273374159456</v>
@@ -24937,7 +24829,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.697606409087455</v>
+        <v>1.658811440646309</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.222237208028805</v>
@@ -25026,7 +24918,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.702693961215798</v>
+        <v>1.657968012637663</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.26268096120233</v>
@@ -25115,7 +25007,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.703376480191316</v>
+        <v>1.654483868937281</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.101416310469669</v>
@@ -25204,7 +25096,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.700030849207952</v>
+        <v>1.652597554642265</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.111121334973573</v>
@@ -25293,7 +25185,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.697161036018461</v>
+        <v>1.65809819509891</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.059193740645936</v>
@@ -25382,7 +25274,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.694199951677146</v>
+        <v>1.653827769174964</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.941262652037428</v>
@@ -25471,7 +25363,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.684082009456412</v>
+        <v>1.644279857249608</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.459129843977493</v>
@@ -25560,7 +25452,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.679169505696763</v>
+        <v>1.639562004987987</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.989393706583477</v>
@@ -25649,7 +25541,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.67771468654547</v>
+        <v>1.64522853989935</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.984673309546129</v>
@@ -25738,7 +25630,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.671006332591493</v>
+        <v>1.645237056113495</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.064801894798227</v>
@@ -25827,7 +25719,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.657252884431127</v>
+        <v>1.632674096866611</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.134144144323981</v>
@@ -25916,7 +25808,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.653406895769193</v>
+        <v>1.628645209506567</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.058568534405091</v>
@@ -26005,7 +25897,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.651279982985812</v>
+        <v>1.634539545004497</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.074019555449932</v>
@@ -26094,7 +25986,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.656157839886342</v>
+        <v>1.635518932074853</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.063987973849405</v>
@@ -26183,7 +26075,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.65513023671449</v>
+        <v>1.636411740283209</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.088683325299267</v>
@@ -26272,7 +26164,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.664675987560119</v>
+        <v>1.644324601281763</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.123630511014235</v>
@@ -26361,7 +26253,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.662609744447969</v>
+        <v>1.645058439233618</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.113343867359904</v>
@@ -26450,7 +26342,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.656736927848585</v>
+        <v>1.644181825570159</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.071333216805852</v>
@@ -26539,7 +26431,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.658756882975168</v>
+        <v>1.645283364246022</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.07189522367939</v>
@@ -26628,7 +26520,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.649484528185818</v>
+        <v>1.635848327008416</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.131821980915823</v>
@@ -26717,7 +26609,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.643096865252293</v>
+        <v>1.631420899510417</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.100862332314636</v>
@@ -26806,7 +26698,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.64234348721338</v>
+        <v>1.63422095184992</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.130401708640154</v>
@@ -26895,7 +26787,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.610907342605092</v>
+        <v>1.604328669607805</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.133729714385653</v>
@@ -26984,7 +26876,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.593736565622055</v>
+        <v>1.592924748104368</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.12582878139585</v>
@@ -27073,7 +26965,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.60020002532581</v>
+        <v>1.58864811060229</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.055528005700892</v>
@@ -27162,7 +27054,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.611834299241556</v>
+        <v>1.60022398017216</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.165774536074583</v>
@@ -27251,7 +27143,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.624057568549181</v>
+        <v>1.60744584358219</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.085679529793116</v>
@@ -27340,7 +27232,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.62942672796961</v>
+        <v>1.607726890004682</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.087992693419762</v>
@@ -27429,7 +27321,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.630898770503434</v>
+        <v>1.609957872678117</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.270387797281184</v>
@@ -27518,7 +27410,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.634542685296863</v>
+        <v>1.60510391543746</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.293730317637195</v>
@@ -27607,7 +27499,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.633114109946895</v>
+        <v>1.601622235818965</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.30869500667098</v>
@@ -27696,7 +27588,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.638709223434146</v>
+        <v>1.600962353900587</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.306196322658373</v>
@@ -27785,7 +27677,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.648754519792872</v>
+        <v>1.611484387449779</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.336600794330898</v>
@@ -27874,7 +27766,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.660838312308247</v>
+        <v>1.62289158145863</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.362617288893171</v>
@@ -27963,7 +27855,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.648108162850317</v>
+        <v>1.605763461014875</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.472568924915981</v>
@@ -28052,7 +27944,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.640747448706051</v>
+        <v>1.605428343444893</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.368947121952985</v>
@@ -28141,7 +28033,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.643766427208855</v>
+        <v>1.60719679527994</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.299612997356561</v>
@@ -28230,7 +28122,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.661875502676731</v>
+        <v>1.628973339866854</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.38783556761561</v>
@@ -28319,7 +28211,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.686149323244305</v>
+        <v>1.650303456421277</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.320140587219153</v>
@@ -28408,7 +28300,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.699602449309694</v>
+        <v>1.671535747430118</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.396347641931139</v>
@@ -28497,7 +28389,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.705395371361875</v>
+        <v>1.67812887570936</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.528149353224206</v>
@@ -28586,7 +28478,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.700687239696997</v>
+        <v>1.683383860967332</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.36065204775726</v>
@@ -28675,7 +28567,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.710214925493429</v>
+        <v>1.696590133378369</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.41644389118766</v>
@@ -28764,7 +28656,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.703897803958386</v>
+        <v>1.695721694217417</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.389070209548032</v>
@@ -28853,7 +28745,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.708798775358631</v>
+        <v>1.709895943357571</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.855156172372234</v>
@@ -28942,7 +28834,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.707160595590075</v>
+        <v>1.713372027470024</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.648981226607753</v>
@@ -29031,7 +28923,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.710707391182434</v>
+        <v>1.718998883892534</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.991174376832984</v>
@@ -29120,7 +29012,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.707189752844042</v>
+        <v>1.715448931749773</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.912814315740997</v>
@@ -29209,7 +29101,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.70625221224981</v>
+        <v>1.717544427312448</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.971013407232998</v>
@@ -29298,7 +29190,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.75164252754327</v>
+        <v>1.761133775442782</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.795819088473411</v>
@@ -29387,7 +29279,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.763442074622751</v>
+        <v>1.767099935679127</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.186998315600007</v>
@@ -29476,7 +29368,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.764334461091385</v>
+        <v>1.763523242566277</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.51064674606595</v>
@@ -29565,7 +29457,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.777551022601036</v>
+        <v>1.771622504138971</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.942465103541773</v>
@@ -29654,7 +29546,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.777319996594191</v>
+        <v>1.769893837229745</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.023518245373651</v>
@@ -29743,7 +29635,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.770747297780103</v>
+        <v>1.757163108422901</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.95364577349974</v>
@@ -29832,7 +29724,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.770168666334298</v>
+        <v>1.761303863650669</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.367618132385936</v>
@@ -29921,7 +29813,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.772588018652504</v>
+        <v>1.759062457844602</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.245669738358151</v>
@@ -30010,7 +29902,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.773306814883486</v>
+        <v>1.756522065352786</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.180312705197896</v>
@@ -30296,7 +30188,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.612896111555659</v>
+        <v>1.62626456736565</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.999816323868337</v>
@@ -30385,7 +30277,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.618255407683876</v>
+        <v>1.628313933412594</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.932717739601784</v>
@@ -30474,7 +30366,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.620567649291907</v>
+        <v>1.632361006857547</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.926681250318863</v>
@@ -30563,7 +30455,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.557997397363855</v>
+        <v>1.563204054445052</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.514384319899532</v>
@@ -30652,7 +30544,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.575229663779401</v>
+        <v>1.580190148872134</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.743246612318116</v>
@@ -30741,7 +30633,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.577712960267491</v>
+        <v>1.581835910217043</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.803735541564147</v>
@@ -30830,7 +30722,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.582486620027227</v>
+        <v>1.585245420449413</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.731503196938194</v>
@@ -30919,7 +30811,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.58061981388626</v>
+        <v>1.582631352716446</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.681908783003327</v>
@@ -31008,7 +30900,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.587886260152081</v>
+        <v>1.588369928042849</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.385380396225217</v>
@@ -31097,7 +30989,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.612888957478946</v>
+        <v>1.610374915579819</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.734223932499364</v>
@@ -31186,7 +31078,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.595024728676998</v>
+        <v>1.594552858004544</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.380415958699027</v>
@@ -31275,7 +31167,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.5924782590239</v>
+        <v>1.598878384694572</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.34818107743088</v>
@@ -31364,7 +31256,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.583539219362651</v>
+        <v>1.591802319335019</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.44421714365643</v>
@@ -31453,7 +31345,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.561722728499067</v>
+        <v>1.574833601878205</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.458213607893158</v>
@@ -31542,7 +31434,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.549296510379599</v>
+        <v>1.556684328314146</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.538352939263012</v>
@@ -31631,7 +31523,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.546487769156625</v>
+        <v>1.556168030487742</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.566738594800005</v>
@@ -31720,7 +31612,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.524713345148761</v>
+        <v>1.540312013792423</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.45473920645376</v>
@@ -31809,7 +31701,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.526147595345004</v>
+        <v>1.54386416634646</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.51098404244354</v>
@@ -31898,7 +31790,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.537661145785206</v>
+        <v>1.558367413939747</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.571598172938704</v>
@@ -31987,7 +31879,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.531576360746731</v>
+        <v>1.552610635638541</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.599784755446311</v>
@@ -32076,7 +31968,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.531207593125888</v>
+        <v>1.552983719631483</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.599014053894668</v>
@@ -32165,7 +32057,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.538522472829178</v>
+        <v>1.562042307235934</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.511995933127569</v>
@@ -32254,7 +32146,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.544100069527579</v>
+        <v>1.564974230345392</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.636115883474759</v>
@@ -32343,7 +32235,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.550660344266104</v>
+        <v>1.575210802234472</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.615017903789718</v>
@@ -32432,7 +32324,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.550961617872612</v>
+        <v>1.570663999397189</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.481608563456498</v>
@@ -32521,7 +32413,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.536594054686022</v>
+        <v>1.553716021339145</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.458180785571354</v>
@@ -32610,7 +32502,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.520956303126943</v>
+        <v>1.531530733634717</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.669924320752169</v>
@@ -32699,7 +32591,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.529007855054016</v>
+        <v>1.542765264471709</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.673794262273309</v>
@@ -32788,7 +32680,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.540009727701162</v>
+        <v>1.553477139299288</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.652552110754348</v>
@@ -32877,7 +32769,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.552172303681443</v>
+        <v>1.569872971501998</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.753790355753821</v>
@@ -32966,7 +32858,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.553131075382757</v>
+        <v>1.571070233569842</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.648367950978036</v>
@@ -33055,7 +32947,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.576021172035037</v>
+        <v>1.586053998308427</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.773700746389212</v>
@@ -33144,7 +33036,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.576687957278584</v>
+        <v>1.586310486044705</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.624896708702595</v>
@@ -33233,7 +33125,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.574555103070741</v>
+        <v>1.582892325741289</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.918098939761192</v>
@@ -33322,7 +33214,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.58256766873776</v>
+        <v>1.585915610281787</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.758140391354558</v>
@@ -33411,7 +33303,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.592292877718652</v>
+        <v>1.595522128134286</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.792946065138302</v>
@@ -33500,7 +33392,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.591383102137099</v>
+        <v>1.59334048430191</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.916014233227338</v>
@@ -33589,7 +33481,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.559012040882273</v>
+        <v>1.565231803235368</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.550355971438857</v>
@@ -33678,7 +33570,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.52757005104657</v>
+        <v>1.5367215152234</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.707394445384275</v>
@@ -33767,7 +33659,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.527775147793781</v>
+        <v>1.539863632762601</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.64871132536331</v>
@@ -33856,7 +33748,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.550496675842481</v>
+        <v>1.567527274701412</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.570285058515182</v>
@@ -33945,7 +33837,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.586076143682916</v>
+        <v>1.601197710995748</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.402886928799033</v>
@@ -34034,7 +33926,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.598950207251654</v>
+        <v>1.613761097335471</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.569190341730407</v>
@@ -34123,7 +34015,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.58954753612945</v>
+        <v>1.603301666145747</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.712695456890924</v>
@@ -34212,7 +34104,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.581531668819547</v>
+        <v>1.602850859898363</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.701136355730594</v>
@@ -34301,7 +34193,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.585181640883849</v>
+        <v>1.607055646105532</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.574649937395725</v>
@@ -34390,7 +34282,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.586555499429911</v>
+        <v>1.60769660646968</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.720852701620111</v>
@@ -34479,7 +34371,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.590848105923262</v>
+        <v>1.613780353916394</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.675841395013172</v>
@@ -34568,7 +34460,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.596664885057039</v>
+        <v>1.621333105562531</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.785031112478896</v>
@@ -34657,7 +34549,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.60875857851364</v>
+        <v>1.63947860097643</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.703061901927264</v>
@@ -34746,7 +34638,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.606292498740866</v>
+        <v>1.639084093179735</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.694960840142674</v>
@@ -34835,7 +34727,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.608223459772989</v>
+        <v>1.638768023329088</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.707909946873769</v>
@@ -34924,7 +34816,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.65492181547937</v>
+        <v>1.686491976627873</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.900997288857987</v>
@@ -35013,7 +34905,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.707416219935331</v>
+        <v>1.732513059775556</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.031194712922781</v>
@@ -35102,7 +34994,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.727837291693722</v>
+        <v>1.748397395664907</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.335114500785458</v>
@@ -35191,7 +35083,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.728498132766053</v>
+        <v>1.751556471737052</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.347230037549543</v>
@@ -35280,7 +35172,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.726629486174603</v>
+        <v>1.750021555645735</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.369144746759302</v>
@@ -35369,7 +35261,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.704784037985345</v>
+        <v>1.728678009196766</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.119163252177003</v>
@@ -35458,7 +35350,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.693561824254189</v>
+        <v>1.720352335728876</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.539558597677659</v>
@@ -35547,7 +35439,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.703426237052094</v>
+        <v>1.727857516307893</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.787329549285903</v>
@@ -35636,7 +35528,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.704710753885179</v>
+        <v>1.729532518262332</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.681705047799899</v>
@@ -35922,7 +35814,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.501522621351677</v>
+        <v>1.491366470834303</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.217330442472625</v>
@@ -36011,7 +35903,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.521270079570554</v>
+        <v>1.508285117493631</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.145933218053083</v>
@@ -36100,7 +35992,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.548264331520515</v>
+        <v>1.535857995412368</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.220368032529746</v>
@@ -36189,7 +36081,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.538285804462658</v>
+        <v>1.523540327853172</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.261449481599698</v>
@@ -36278,7 +36170,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.541812079105552</v>
+        <v>1.530090662545346</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.191129893150837</v>
@@ -36367,7 +36259,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.53996106998727</v>
+        <v>1.532502649439001</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.325774660608241</v>
@@ -36456,7 +36348,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.585086070813097</v>
+        <v>1.575493278163417</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.093853911372888</v>
@@ -36545,7 +36437,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.610892470911024</v>
+        <v>1.600245132918716</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.102817808333362</v>
@@ -36634,7 +36526,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.58323708277286</v>
+        <v>1.573078432839782</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.159260457169502</v>
@@ -36723,7 +36615,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.600103246925253</v>
+        <v>1.585063997823588</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.211669711894467</v>
@@ -36812,7 +36704,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.58698385907916</v>
+        <v>1.575134030012743</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.046647654104491</v>
@@ -36901,7 +36793,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.583416729471742</v>
+        <v>1.569780697237392</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.033617542230382</v>
@@ -36990,7 +36882,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.577954283676749</v>
+        <v>1.570191339089565</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.042931450492276</v>
@@ -37079,7 +36971,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.548047573424845</v>
+        <v>1.545451276475056</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.883672889581218</v>
@@ -37168,7 +37060,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.536108336648831</v>
+        <v>1.537777385161208</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.075410557270447</v>
@@ -37257,7 +37149,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.501379543502151</v>
+        <v>1.500879832501896</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.051265255053744</v>
@@ -37346,7 +37238,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.48889091910952</v>
+        <v>1.484254622731138</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.092808852022517</v>
@@ -37435,7 +37327,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.456775830949328</v>
+        <v>1.446985746664051</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.173681522264342</v>
@@ -37524,7 +37416,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.438717098484982</v>
+        <v>1.436026132131216</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.139254357725251</v>
@@ -37613,7 +37505,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.412215484680675</v>
+        <v>1.411354410244516</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.139854968315297</v>
@@ -37702,7 +37594,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.412758544110975</v>
+        <v>1.409127347163345</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.163997925120429</v>
@@ -37791,7 +37683,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.411476575078413</v>
+        <v>1.409545561408916</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.161736438576709</v>
@@ -37880,7 +37772,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.409458660532223</v>
+        <v>1.408394478382947</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.122089473843578</v>
@@ -37969,7 +37861,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.415329402714547</v>
+        <v>1.416388749072657</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.121130804502618</v>
@@ -38058,7 +37950,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.410328337175477</v>
+        <v>1.410237730858417</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.097624859113421</v>
@@ -38147,7 +38039,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.408949046815182</v>
+        <v>1.398656100236315</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.315774851647155</v>
@@ -38236,7 +38128,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.388810267208332</v>
+        <v>1.386660330273722</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.2290073349148</v>
@@ -38325,7 +38217,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.384299699672062</v>
+        <v>1.377955602287326</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.327167907744359</v>
@@ -38414,7 +38306,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.39029739202917</v>
+        <v>1.379173117883086</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.334172633026553</v>
@@ -38503,7 +38395,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.390933651537289</v>
+        <v>1.382705162032425</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.258333338934191</v>
@@ -38592,7 +38484,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.40982706860538</v>
+        <v>1.40149929763585</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.235280873335623</v>
@@ -38681,7 +38573,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.433045313585002</v>
+        <v>1.430140323699125</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.139404350777312</v>
@@ -38770,7 +38662,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.473496283372394</v>
+        <v>1.465232496497018</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.063589005129927</v>
@@ -38859,7 +38751,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.467883903570623</v>
+        <v>1.460054013807991</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.291347927967588</v>
@@ -38948,7 +38840,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.477481418800355</v>
+        <v>1.465164883222279</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.339999672603093</v>
@@ -39037,7 +38929,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.479029828416074</v>
+        <v>1.466474587510268</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.383372632131188</v>
@@ -39126,7 +39018,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.484806204824972</v>
+        <v>1.470524111014222</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.385858506688607</v>
@@ -39215,7 +39107,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.464325495160029</v>
+        <v>1.448633925827187</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.374257863787019</v>
@@ -39304,7 +39196,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.458060559025959</v>
+        <v>1.444179488690995</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.356242999132483</v>
@@ -39393,7 +39285,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.466628288036172</v>
+        <v>1.452574154805755</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.438197249401349</v>
@@ -39482,7 +39374,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.489604034103691</v>
+        <v>1.482444670469716</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.302252478053787</v>
@@ -39571,7 +39463,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.488903025305214</v>
+        <v>1.482351673512565</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.363645360962598</v>
@@ -39660,7 +39552,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.50296938562106</v>
+        <v>1.495502295571149</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.283535175463193</v>
@@ -39749,7 +39641,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.516814292518746</v>
+        <v>1.511516286799499</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.284547245604713</v>
@@ -39838,7 +39730,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.53929334016689</v>
+        <v>1.536533364280852</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.409304019896005</v>
@@ -39927,7 +39819,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.548491114029554</v>
+        <v>1.547155658213709</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.368979765214545</v>
@@ -40016,7 +39908,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.553664400354082</v>
+        <v>1.551871662707206</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.310799858968404</v>
@@ -40105,7 +39997,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.579946721083533</v>
+        <v>1.582932279498793</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.250175115902099</v>
@@ -40194,7 +40086,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.609820226536076</v>
+        <v>1.612600938661117</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.375162264583574</v>
@@ -40283,7 +40175,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.65675629884079</v>
+        <v>1.658919287358034</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.411569085582071</v>
@@ -40372,7 +40264,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.658470407935281</v>
+        <v>1.662427248666327</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.346439844006707</v>
@@ -40461,7 +40353,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.642894871542348</v>
+        <v>1.648679882398232</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.301403625825205</v>
@@ -40550,7 +40442,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.683559978215118</v>
+        <v>1.691110863135035</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.388523484569212</v>
@@ -40639,7 +40531,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.70240116254567</v>
+        <v>1.709727671328738</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.357137627945742</v>
@@ -40728,7 +40620,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.70977983656836</v>
+        <v>1.716964500771103</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.439545146805934</v>
@@ -40817,7 +40709,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.713500826954798</v>
+        <v>1.720634366729185</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.2533338487812</v>
@@ -40906,7 +40798,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.728227381014135</v>
+        <v>1.734471384323421</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.267247886134378</v>
@@ -40995,7 +40887,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.724984847346324</v>
+        <v>1.732006169376783</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.366808356112736</v>
@@ -41084,7 +40976,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.763601923881076</v>
+        <v>1.76573755784873</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.629065172624901</v>
@@ -41173,7 +41065,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.763929297630071</v>
+        <v>1.766071182168496</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.694474372193607</v>
@@ -41262,7 +41154,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.740463613332389</v>
+        <v>1.748405960343773</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.854168817774312</v>
